--- a/pred_ohlcv/54_21/2019-10-28 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ICX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>41337.30227068591</v>
       </c>
       <c r="H8">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -704,7 +704,7 @@
         <v>69177.51487068592</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H16">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H17">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>64908.09047068591</v>
       </c>
       <c r="H18">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>65488.62187068591</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54438.98307068591</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>54716.73997068591</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>54311.73997068591</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>54756.44277068591</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>56732.68407068591</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>57271.04907068591</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>54179.58047068591</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>52962.55237068591</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>52064.30797068591</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>52164.30797068591</v>
       </c>
       <c r="H40">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H42">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>50714.11617068591</v>
       </c>
       <c r="H43">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H44">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H45">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H46">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H47">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H48">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H49">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H50">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H51">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H52">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H54">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>49163.43135005099</v>
       </c>
       <c r="H55">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>49216.06292899836</v>
       </c>
       <c r="H56">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H69">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H70">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>63553.23372899836</v>
       </c>
       <c r="H71">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>58983.00952899837</v>
       </c>
       <c r="H72">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>49342.16332899837</v>
       </c>
       <c r="H73">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H74">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H75">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H76">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>55217.35472899837</v>
       </c>
       <c r="H77">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-488657.4667710019</v>
       </c>
       <c r="H174">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6242,7 +6242,7 @@
         <v>-354075.3443338515</v>
       </c>
       <c r="H225">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="226" spans="1:8">
@@ -6268,7 +6268,7 @@
         <v>-353544.5902338515</v>
       </c>
       <c r="H226">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="227" spans="1:8">
@@ -6294,7 +6294,7 @@
         <v>-353650.9732338514</v>
       </c>
       <c r="H227">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="228" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-353730.9732338514</v>
       </c>
       <c r="H228">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6346,7 +6346,7 @@
         <v>-347688.6532338514</v>
       </c>
       <c r="H229">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="230" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-346098.6790338514</v>
       </c>
       <c r="H230">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-361283.5867338514</v>
       </c>
       <c r="H231">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-354678.6415338514</v>
       </c>
       <c r="H232">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6450,7 +6450,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H233">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="234" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H234">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H235">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H236">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H237">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H238">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-351906.929810322</v>
       </c>
       <c r="H239">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-278681.764010322</v>
       </c>
       <c r="H240">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H241">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H242">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H243">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-278463.5973436553</v>
       </c>
       <c r="H244">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-279525.9173436553</v>
       </c>
       <c r="H245">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H246">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H247">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H248">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H249">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-279950.0541436553</v>
       </c>
       <c r="H250">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H251">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H252">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H253">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-280234.0952436553</v>
       </c>
       <c r="H254">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-280363.0510436553</v>
       </c>
       <c r="H255">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H256">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H257">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-274909.9634436553</v>
       </c>
       <c r="H259">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H260">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H261">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-268719.6934436553</v>
       </c>
       <c r="H262">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-273432.2562436553</v>
       </c>
       <c r="H263">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-268572.5550436553</v>
       </c>
       <c r="H264">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-268672.5550436553</v>
       </c>
       <c r="H265">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H267">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H268">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H269">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H270">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H271">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H272">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H273">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H274">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-272905.5131436554</v>
       </c>
       <c r="H278">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7646,7 +7646,7 @@
         <v>-251187.6457606554</v>
       </c>
       <c r="H279">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="280" spans="1:8">
@@ -7672,7 +7672,7 @@
         <v>-256239.1507606554</v>
       </c>
       <c r="H280">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="281" spans="1:8">
@@ -7698,7 +7698,7 @@
         <v>-268165.7827606554</v>
       </c>
       <c r="H281">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="282" spans="1:8">
@@ -7724,7 +7724,7 @@
         <v>-289718.5196606554</v>
       </c>
       <c r="H282">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="283" spans="1:8">
@@ -7776,7 +7776,7 @@
         <v>-275444.0177762333</v>
       </c>
       <c r="H284">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="285" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8218,7 +8218,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H301">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="302" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H302">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H303">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/pred_ohlcv/54_21/2019-10-28 ICX ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2019-10-28 ICX ohlcv.xlsx
@@ -548,7 +548,7 @@
         <v>20599.43097068591</v>
       </c>
       <c r="H6">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:8">
@@ -574,7 +574,7 @@
         <v>29984.00597068591</v>
       </c>
       <c r="H7">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="8" spans="1:8">
@@ -600,7 +600,7 @@
         <v>41337.30227068591</v>
       </c>
       <c r="H8">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:8">
@@ -626,7 +626,7 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H9">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:8">
@@ -652,7 +652,7 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H10">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:8">
@@ -678,7 +678,7 @@
         <v>66000.06547068592</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>69177.51487068592</v>
       </c>
       <c r="H12">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H13">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H14">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H15">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -808,7 +808,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H16">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:8">
@@ -834,7 +834,7 @@
         <v>70177.51487068592</v>
       </c>
       <c r="H17">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18" spans="1:8">
@@ -860,7 +860,7 @@
         <v>64908.09047068591</v>
       </c>
       <c r="H18">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="19" spans="1:8">
@@ -886,7 +886,7 @@
         <v>65488.62187068591</v>
       </c>
       <c r="H19">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>54438.98307068591</v>
       </c>
       <c r="H20">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>54716.73997068591</v>
       </c>
       <c r="H21">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>54311.73997068591</v>
       </c>
       <c r="H22">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H23">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1016,7 +1016,7 @@
         <v>54301.73997068591</v>
       </c>
       <c r="H24">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>54766.73997068591</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>54766.73997068591</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>54756.44277068591</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>1</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>56732.68407068591</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>57271.04907068591</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>57268.04907068591</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>54179.58047068591</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>52962.55237068591</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>53057.55237068591</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>52064.30797068591</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>52164.30797068591</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>52112.30797068591</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>50714.11617068591</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1536,7 +1536,7 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H44">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:8">
@@ -1562,7 +1562,7 @@
         <v>50722.05267068591</v>
       </c>
       <c r="H45">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -1614,7 +1614,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H47">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:8">
@@ -1640,7 +1640,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H48">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:8">
@@ -1666,7 +1666,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H49">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:8">
@@ -1692,7 +1692,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H50">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:8">
@@ -1718,7 +1718,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H51">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:8">
@@ -1744,7 +1744,7 @@
         <v>52229.51655005099</v>
       </c>
       <c r="H52">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H53">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -1796,7 +1796,7 @@
         <v>46483.43135005099</v>
       </c>
       <c r="H54">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:8">
@@ -1822,7 +1822,7 @@
         <v>49163.43135005099</v>
       </c>
       <c r="H55">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:8">
@@ -1848,7 +1848,7 @@
         <v>49216.06292899836</v>
       </c>
       <c r="H56">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="57" spans="1:8">
@@ -2186,7 +2186,7 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H69">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="70" spans="1:8">
@@ -2212,7 +2212,7 @@
         <v>63540.61922899836</v>
       </c>
       <c r="H70">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="71" spans="1:8">
@@ -2238,7 +2238,7 @@
         <v>63553.23372899836</v>
       </c>
       <c r="H71">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="72" spans="1:8">
@@ -2264,7 +2264,7 @@
         <v>58983.00952899837</v>
       </c>
       <c r="H72">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="73" spans="1:8">
@@ -2290,7 +2290,7 @@
         <v>49342.16332899837</v>
       </c>
       <c r="H73">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="74" spans="1:8">
@@ -2316,7 +2316,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H74">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="75" spans="1:8">
@@ -2342,7 +2342,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H75">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="76" spans="1:8">
@@ -2368,7 +2368,7 @@
         <v>52735.28332899837</v>
       </c>
       <c r="H76">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="77" spans="1:8">
@@ -2394,7 +2394,7 @@
         <v>55217.35472899837</v>
       </c>
       <c r="H77">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="78" spans="1:8">
@@ -2420,7 +2420,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H78">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="79" spans="1:8">
@@ -2446,7 +2446,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H79">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="80" spans="1:8">
@@ -2472,7 +2472,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H80">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="81" spans="1:8">
@@ -2498,7 +2498,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H81">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="82" spans="1:8">
@@ -2524,7 +2524,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H82">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="83" spans="1:8">
@@ -2550,7 +2550,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H83">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="84" spans="1:8">
@@ -2576,7 +2576,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H84">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="85" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H85">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2628,7 +2628,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H86">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="87" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>57197.35472899837</v>
       </c>
       <c r="H87">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H89">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>59747.65952899837</v>
       </c>
       <c r="H90">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>59763.65952899837</v>
       </c>
       <c r="H91">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2784,7 +2784,7 @@
         <v>59747.91212899837</v>
       </c>
       <c r="H92">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="93" spans="1:8">
@@ -4136,7 +4136,7 @@
         <v>-2187045.933471002</v>
       </c>
       <c r="H144">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="145" spans="1:8">
@@ -4188,7 +4188,7 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H146">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="147" spans="1:8">
@@ -4214,7 +4214,7 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H147">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="148" spans="1:8">
@@ -4240,7 +4240,7 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H148">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="149" spans="1:8">
@@ -4266,7 +4266,7 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H149">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="150" spans="1:8">
@@ -4292,7 +4292,7 @@
         <v>-1214701.001671002</v>
       </c>
       <c r="H150">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="151" spans="1:8">
@@ -4344,7 +4344,7 @@
         <v>-2126767.001671002</v>
       </c>
       <c r="H152">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="153" spans="1:8">
@@ -4526,7 +4526,7 @@
         <v>-452976.2265710018</v>
       </c>
       <c r="H159">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="160" spans="1:8">
@@ -4578,7 +4578,7 @@
         <v>-452973.7305710018</v>
       </c>
       <c r="H161">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="162" spans="1:8">
@@ -4916,7 +4916,7 @@
         <v>-488657.4667710019</v>
       </c>
       <c r="H174">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="175" spans="1:8">
@@ -6112,7 +6112,7 @@
         <v>-303756.4760338514</v>
       </c>
       <c r="H220">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="221" spans="1:8">
@@ -6138,7 +6138,7 @@
         <v>-345900.6258338515</v>
       </c>
       <c r="H221">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="222" spans="1:8">
@@ -6320,7 +6320,7 @@
         <v>-353730.9732338514</v>
       </c>
       <c r="H228">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="229" spans="1:8">
@@ -6372,7 +6372,7 @@
         <v>-346098.6790338514</v>
       </c>
       <c r="H230">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="231" spans="1:8">
@@ -6398,7 +6398,7 @@
         <v>-361283.5867338514</v>
       </c>
       <c r="H231">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="232" spans="1:8">
@@ -6424,7 +6424,7 @@
         <v>-354678.6415338514</v>
       </c>
       <c r="H232">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="233" spans="1:8">
@@ -6476,7 +6476,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H234">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="235" spans="1:8">
@@ -6502,7 +6502,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H235">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="236" spans="1:8">
@@ -6528,7 +6528,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H236">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="237" spans="1:8">
@@ -6554,7 +6554,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H237">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="238" spans="1:8">
@@ -6580,7 +6580,7 @@
         <v>-354877.6415338514</v>
       </c>
       <c r="H238">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="239" spans="1:8">
@@ -6606,7 +6606,7 @@
         <v>-351906.929810322</v>
       </c>
       <c r="H239">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="240" spans="1:8">
@@ -6632,7 +6632,7 @@
         <v>-278681.764010322</v>
       </c>
       <c r="H240">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="241" spans="1:8">
@@ -6658,7 +6658,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H241">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="242" spans="1:8">
@@ -6684,7 +6684,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H242">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="243" spans="1:8">
@@ -6710,7 +6710,7 @@
         <v>-278717.764010322</v>
       </c>
       <c r="H243">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="244" spans="1:8">
@@ -6736,7 +6736,7 @@
         <v>-278463.5973436553</v>
       </c>
       <c r="H244">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="245" spans="1:8">
@@ -6762,7 +6762,7 @@
         <v>-279525.9173436553</v>
       </c>
       <c r="H245">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="246" spans="1:8">
@@ -6788,7 +6788,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H246">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="247" spans="1:8">
@@ -6814,7 +6814,7 @@
         <v>-279684.9416436553</v>
       </c>
       <c r="H247">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="248" spans="1:8">
@@ -6840,7 +6840,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H248">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="249" spans="1:8">
@@ -6866,7 +6866,7 @@
         <v>-280078.0541436553</v>
       </c>
       <c r="H249">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="250" spans="1:8">
@@ -6892,7 +6892,7 @@
         <v>-279950.0541436553</v>
       </c>
       <c r="H250">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="251" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6970,7 +6970,7 @@
         <v>-280833.8476436553</v>
       </c>
       <c r="H253">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="254" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-280234.0952436553</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-280363.0510436553</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7048,7 +7048,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H256">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="257" spans="1:8">
@@ -7074,7 +7074,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H257">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="258" spans="1:8">
@@ -7100,7 +7100,7 @@
         <v>-275205.7583436553</v>
       </c>
       <c r="H258">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="259" spans="1:8">
@@ -7126,7 +7126,7 @@
         <v>-274909.9634436553</v>
       </c>
       <c r="H259">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="260" spans="1:8">
@@ -7152,7 +7152,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H260">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="261" spans="1:8">
@@ -7178,7 +7178,7 @@
         <v>-275240.5317436553</v>
       </c>
       <c r="H261">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="262" spans="1:8">
@@ -7204,7 +7204,7 @@
         <v>-268719.6934436553</v>
       </c>
       <c r="H262">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="263" spans="1:8">
@@ -7230,7 +7230,7 @@
         <v>-273432.2562436553</v>
       </c>
       <c r="H263">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="264" spans="1:8">
@@ -7256,7 +7256,7 @@
         <v>-268572.5550436553</v>
       </c>
       <c r="H264">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="265" spans="1:8">
@@ -7282,7 +7282,7 @@
         <v>-268672.5550436553</v>
       </c>
       <c r="H265">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="266" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H266">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-265617.6240436553</v>
       </c>
       <c r="H267">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7360,7 +7360,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H268">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="269" spans="1:8">
@@ -7386,7 +7386,7 @@
         <v>-268464.6240436553</v>
       </c>
       <c r="H269">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="270" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H270">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H271">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H272">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7490,7 +7490,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H273">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="274" spans="1:8">
@@ -7516,7 +7516,7 @@
         <v>-268874.6240436553</v>
       </c>
       <c r="H274">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="275" spans="1:8">
@@ -7542,7 +7542,7 @@
         <v>-268878.6180436554</v>
       </c>
       <c r="H275">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="276" spans="1:8">
@@ -7568,7 +7568,7 @@
         <v>-268711.6180436554</v>
       </c>
       <c r="H276">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="277" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-268718.5928436554</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="278" spans="1:8">
@@ -7620,7 +7620,7 @@
         <v>-272905.5131436554</v>
       </c>
       <c r="H278">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="279" spans="1:8">
@@ -7906,7 +7906,7 @@
         <v>-264563.7010362283</v>
       </c>
       <c r="H289">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="290" spans="1:8">
@@ -8244,7 +8244,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H302">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="303" spans="1:8">
@@ -8270,7 +8270,7 @@
         <v>-248849.2179087282</v>
       </c>
       <c r="H303">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
   </sheetData>
